--- a/data/lit/raw/20201218_UGT_activitydata_from_lit.xlsx
+++ b/data/lit/raw/20201218_UGT_activitydata_from_lit.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diwel/dtu/Ditte_shared/Budget/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cdmadsen/GT/data/lit/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A2C539-5F52-6448-B2AA-E5E36F4EF6D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DA3475-410C-5F48-9511-CFF30823ED2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="700" windowWidth="10000" windowHeight="16940" xr2:uid="{8E669582-CF78-574E-ADA5-8030D83D9794}"/>
+    <workbookView xWindow="1460" yWindow="700" windowWidth="27520" windowHeight="19600" xr2:uid="{8E669582-CF78-574E-ADA5-8030D83D9794}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="97">
   <si>
     <t>Salicyl-7-benzoate</t>
   </si>
@@ -110,37 +120,7 @@
     <t>Acceptor</t>
   </si>
   <si>
-    <t>Protein name</t>
-  </si>
-  <si>
     <t>﻿MT525101</t>
-  </si>
-  <si>
-    <t>Genbank ID:</t>
-  </si>
-  <si>
-    <t>kcat (=kobs) s-1</t>
-  </si>
-  <si>
-    <t>27.74±7.99</t>
-  </si>
-  <si>
-    <t>5.16±0.08</t>
-  </si>
-  <si>
-    <t>not   reacting</t>
-  </si>
-  <si>
-    <t>not reacting</t>
-  </si>
-  <si>
-    <t>Reactive (kcat not given)</t>
-  </si>
-  <si>
-    <t>4.82±0.74</t>
-  </si>
-  <si>
-    <t>5.32±1.17</t>
   </si>
   <si>
     <t>Reference:</t>
@@ -372,6 +352,27 @@
   </si>
   <si>
     <t>2.2 ± 0.3</t>
+  </si>
+  <si>
+    <t>Reactive</t>
+  </si>
+  <si>
+    <t>Genbank</t>
+  </si>
+  <si>
+    <t>ProteinName</t>
+  </si>
+  <si>
+    <t>KcatPerSecStd</t>
+  </si>
+  <si>
+    <t>KcatPerSec</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -467,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -479,6 +480,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,8 +691,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1105,14 +1107,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D903B9D2-4ADA-8F4A-A94F-E1099871EE6C}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.83203125" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" customWidth="1"/>
@@ -1123,281 +1125,410 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>91</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
+      <c r="A2" t="s">
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2">
+        <v>27.74</v>
+      </c>
+      <c r="F2" s="2">
+        <v>7.99</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8" t="s">
-        <v>27</v>
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
+        <v>5.16</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.08</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>28</v>
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="2"/>
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="2"/>
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="2"/>
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="2"/>
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="2"/>
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>4.82</v>
+      </c>
+      <c r="F13">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="2"/>
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="2"/>
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2">
+        <v>5.32</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1.17</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="2"/>
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="2"/>
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="2" t="s">
-        <v>11</v>
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>34</v>
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="2" t="s">
-        <v>13</v>
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" t="s">
-        <v>31</v>
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>31</v>
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C26" t="s">
-        <v>31</v>
+      <c r="D23" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:11" s="5" customFormat="1"/>
     <row r="31" spans="1:11">
       <c r="A31" s="9" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" t="s">
-        <v>48</v>
-      </c>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I32" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J32" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="K32" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C33">
         <v>1.2999999999999999E-2</v>
@@ -1406,33 +1537,33 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="E33" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I33" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J33" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="K33" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C34">
         <v>2.5000000000000001E-2</v>
@@ -1441,33 +1572,33 @@
         <v>2.4E-2</v>
       </c>
       <c r="E34" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I34" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J34" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="K34" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C35">
         <v>8.5999999999999993E-2</v>
@@ -1476,68 +1607,68 @@
         <v>0.20799999999999999</v>
       </c>
       <c r="E35" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G35" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I35" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J35" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K35" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E36" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G36" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I36" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J36" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="K36" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="18">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C37">
         <v>1.9E-2</v>
@@ -1546,33 +1677,33 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="E37" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G37" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I37" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J37" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="K37" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C38">
         <v>2E-3</v>
@@ -1581,25 +1712,25 @@
         <v>0.01</v>
       </c>
       <c r="E38" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G38" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I38" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="J38" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="K38" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1607,161 +1738,161 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:11" s="5" customFormat="1"/>
     <row r="43" spans="1:11">
       <c r="A43" s="6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="6" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="6" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D45" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E45" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C51" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C55" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C57" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C58" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1771,6 +1902,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100ABEBF765D6D1D74FB3C2C8DB61C7847F" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="501a0f8375286ca9b1e3a54f3e4ed626">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="76938ace-d29d-48e9-8a19-2628daa0a363" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d93bfb9251d3ddfa4c27ad4191188cf0" ns2:_="">
     <xsd:import namespace="76938ace-d29d-48e9-8a19-2628daa0a363"/>
@@ -1916,15 +2056,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1932,13 +2063,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{995C04A5-478C-4732-98A4-80B5BDE3F488}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25D8D9F4-D941-4B30-B926-C9466D8FCA83}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25D8D9F4-D941-4B30-B926-C9466D8FCA83}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{995C04A5-478C-4732-98A4-80B5BDE3F488}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="76938ace-d29d-48e9-8a19-2628daa0a363"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55014E57-9161-4625-AEE8-D33CCFECDBA5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55014E57-9161-4625-AEE8-D33CCFECDBA5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>